--- a/system_test.xlsx
+++ b/system_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c63d9f1171e6573d/Рабочий стол/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AD4DF75460589B3ACB72843AE75B6B605ADEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C33947B5-3BAF-42C0-BF14-E89F6E2ADAA9}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_AD4DF75460589B3ACB72843AE75B6B605ADEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3130AB1D-ABD8-4C3F-BDC2-9370BA86DAF0}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="2400" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4476" yWindow="1932" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,49 +27,49 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>Порядок выполнения проверки</t>
-  </si>
-  <si>
     <t>№</t>
   </si>
   <si>
-    <t>Ожидаемые результаты</t>
-  </si>
-  <si>
-    <t>Распознование не менее 90% ям видимых в кадре</t>
-  </si>
-  <si>
-    <t>Проверка нейросети в разных условиях (разный фон, разное освещение, посторонние объекты)</t>
-  </si>
-  <si>
-    <t>Проверка автономного облета карты и процесса фотосъемки дороги</t>
-  </si>
-  <si>
-    <t>Выполнен облет всей карты, на снимках видна каждая часть дороги</t>
-  </si>
-  <si>
-    <t>Проверка передачи данных с дрона на сервер</t>
-  </si>
-  <si>
-    <t>Все данные с дрона на сервер передаются корректно, отсутствуют битые пакеты</t>
-  </si>
-  <si>
-    <t>Проверка вычисления координат ям в метрах</t>
-  </si>
-  <si>
-    <t>Погрешность вычесления координат не более 15 см</t>
-  </si>
-  <si>
-    <t>Проверка наложения ям на карту</t>
-  </si>
-  <si>
-    <t>Ямы накладываются на карту коректно, их положение соответсвует координатам полученным в ходе вычеслений</t>
-  </si>
-  <si>
-    <t>Проверка вывода карты через телеграм бота</t>
-  </si>
-  <si>
-    <t>Бот отправляет всем пользователям из списка карту</t>
+    <t>The procedure for performing the check</t>
+  </si>
+  <si>
+    <t>Expected results</t>
+  </si>
+  <si>
+    <t>Checking the neural network in different conditions (different background, different lighting, foreign objects)</t>
+  </si>
+  <si>
+    <t>Checking the autonomous flyby of the map and the process of photographing the road</t>
+  </si>
+  <si>
+    <t>Checking the data transfer from the drone to the server</t>
+  </si>
+  <si>
+    <t>Checking the calculation of the coordinates of pits in meters</t>
+  </si>
+  <si>
+    <t>Checking the overlap of pits on the map</t>
+  </si>
+  <si>
+    <t>Checking card withdrawal via telegram bot</t>
+  </si>
+  <si>
+    <t>Recognition of at least 90% of the pits visible in the frame</t>
+  </si>
+  <si>
+    <t>The entire map has been flown, and every part of the road is visible in the pictures</t>
+  </si>
+  <si>
+    <t>All data from the drone is transmitted to the server correctly, there are no broken packets</t>
+  </si>
+  <si>
+    <t>The error in calculating coordinates is no more than 15 cm</t>
+  </si>
+  <si>
+    <t>The pits are superimposed on the map correctly, their position corresponds to the coordinates obtained during calculations</t>
+  </si>
+  <si>
+    <t>The bot sends a card to all users from the list</t>
   </si>
 </sst>
 </file>
@@ -280,7 +280,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -574,7 +574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -595,40 +595,40 @@
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>0</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="6">
         <v>1</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="6">
         <f>B3+1</f>
         <v>2</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -639,10 +639,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -653,24 +653,24 @@
         <v>4</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -681,7 +681,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>14</v>
